--- a/75_questions/75 Questions.xlsx
+++ b/75_questions/75 Questions.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/Workspace/leet-code-practice/75_questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D471FA0B-8395-AD4A-9E83-71F5AF6082D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CD179-40F8-2F49-A28B-F99FAEA25768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{4DA75435-538F-5544-B769-C24FC4EFB658}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{4DA75435-538F-5544-B769-C24FC4EFB658}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Question</t>
   </si>
@@ -66,39 +66,29 @@
 Return the merged string.</t>
   </si>
   <si>
-    <t xml:space="preserve">One pointer at word1.
-One pointer at word2.
-</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">class Solution:
-    def mergeAlternately(self, word1: str, word2: str) -&gt; str:
-        w1 = len(word1)
-        w2 = len(word2)
-        i = 0
-        res = ""
-        </t>
-    </r>
+    <t xml:space="preserve">Greatest Common Divisor </t>
+  </si>
+  <si>
+    <t>String Algorithmn + GCD</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/greatest-common-divisor-of-strings/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>For two strings s and t, we say "t divides s" if and only if s = t + t + t + ... + t + t (i.e., t is concatenated with itself one or more times).
+Given two strings str1 and str2, return the largest string x such that x divides both str1 and str2.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>while (i &lt; w1) or (i &lt; w2):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Syntax:</t>
     </r>
     <r>
       <rPr>
@@ -108,20 +98,336 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
+math.gcd(int1, int2)
+➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Returns an int that is the greatest common divisor for int1 and int2.</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution:
+    def gcdOfStrings(self, str1: str, str2: str) -&gt; str:
+        if str1 + str2 != str2 + str1:
+            return ""
+        gcd_length = gcd(len(str1), len(str2))
+        return str1[:gcd_length]</t>
+  </si>
+  <si>
+    <t>Kids With the Greatest Number of Candies</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kids-with-the-greatest-number-of-candies/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>There are n kids with candies. You are given an integer array candies, where each candies[i] represents the number of candies the ith kid has, and an integer extraCandies, denoting the number of extra candies that you have.
+Return a boolean array result of length n, where result[i] is true if, after giving the ith kid all the extraCandies, they will have the greatest number of candies among all the kids, or false otherwise.
+Note that multiple kids can have the greatest number of candies.</t>
+  </si>
+  <si>
+    <t>Find the kid with the most candy initially.
+For each kid, add the extraCandies to the current number of candies.
+If the resulting sum ≥ kid with the most candies initially ➡️ True</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def kidsWithCandies(self, candies: list[int], extraCandies: int) -&gt; list[bool]:
+        res = []
+        max_candies = max(candies)
+        for candy in candies:
+            total = candy + extraCandies
+            if total &gt;= max_candies:
+                res.append(True)
+            else:
+                res.append(False)
+        return res</t>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>Array + Greedy</t>
+  </si>
+  <si>
+    <t>You have a long flowerbed in which some of the plots are planted, and some are not. However, flowers cannot be planted in adjacent plots.
+Given an integer array flowerbed containing 0's and 1's, where 0 means empty and 1 means not empty, and an integer n, return true if n new flowers can be planted in the flowerbed without violating the no-adjacent-flowers rule and false otherwise.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do not use:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>for i in flowerbed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This is not a good fit because this problem is positioned-based (neighbours + mutation)
+Use:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>for i in range(len(flowerbed))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>for idx, bed in enumerate(flowerbed)</t>
+    </r>
+  </si>
+  <si>
+    <t>class Solution:
+    def canPlaceFlowers(self, flowerbed: list[int], n: int) -&gt; bool:
+        flower = 0
+        for i in range(len(flowerbed)):
+            if flowerbed[i] == 0:
+                is_left_empty = (i == 0) or (flowerbed[i - 1] == 0)
+                is_right_empty = (i == len(flowerbed) - 1) or (flowerbed[i + 1] == 0)
+                if is_left_empty and is_right_empty:
+                    flowerbed[i] = 1
+                    flower += 1
+                    if flower &gt;= n:
+                        return True
+        return False</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def canPlaceFlowers(self, flowerbed: list[int], n: int) -&gt; bool:
+        flower = 0
+        if n == 0:
+            return True
+        for idx, bed in enumerate(flowerbed):
+            if bed == 0:
+                is_left_empty = (idx == 0) or (flowerbed[idx - 1] == 0)
+                is_right_empty = (idx == len(flowerbed) - 1) or (
+                    flowerbed[idx + 1] == 0
+                )
+                if is_left_empty and is_right_empty:
+                    flowerbed[idx] = 1
+                    flower += 1
+                    if flower == n:
+                        return True
+        return False</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/can-place-flowers/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Given a string s, reverse only all the vowels in the string and return it.
+The vowels are 'a', 'e', 'i', 'o', and 'u', and they can appear in both lower and upper cases, more than once.</t>
+  </si>
+  <si>
+    <t>One pointer at the start of the string, another pointer at the end of the string. 
+Move the pointers simultaneously while scanning through the string. If the pointers is not in vowel, increment the left and decrement the right.
+When the pointers is at a vowel, swap the positions.
+Syntax:
+"".join(list) → Concats list into a string</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def reverseVowels(self, s: str) -&gt; str:
+        vowels = ["a", "e", "i", "o", "u"]
+        s = list(s)
+        left = 0
+        right = len(s) - 1
+        while left &lt; right:
+            while left &lt; right and s[left].lower() not in vowels:
+                left += 1
+            while left &lt; right and s[right].lower() not in vowels:
+                right -= 1
+            s[left], s[right] = s[right], s[left]
+            left += 1
+            right -= 1
+        return "".join(s)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-vowels-of-a-string/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def mergeAlternately(self, word1: str, word2: str) -&gt; str:
+        w1 = len(word1)
+        w2 = len(word2)
+        i = 0
+        j = 0
+        res = ""
+        while i &lt; w1 or j &lt; w2:
             if i &lt; w1:
                 res += word1[i]
-            if i &lt; w2:
-                res += word2[i]
+            if j &lt; w2:
+                res += word2[j]
             i += 1
+            j += 1
         return res</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">One pointer at word1.
+One pointer at word2.
+As we simulatanouesly move the pointer through each word, we add it to the result. 
+</t>
+  </si>
+  <si>
+    <t>Reverse Words of a String</t>
+  </si>
+  <si>
+    <t>Given an input string s, reverse the order of the words.
+A word is defined as a sequence of non-space characters. The words in s will be separated by at least one space.
+Return a string of the words in reverse order concatenated by a single space.
+Note that s may contain leading or trailing spaces or multiple spaces between two words. The returned string should only have a single space separating the words. Do not include any extra spaces.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def reverseWords(self, s: str) -&gt; str:
+        s = s.split()
+        s.reverse()
+        s = " ".join(s)
+        return s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax:
+split() : Split the string into a list 
+reverse() : Reverse the sorting order of the elements 
+"".join() : Takes all the items in an iterable and join them into one string </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move Zeroes </t>
+  </si>
+  <si>
+    <t>String + Two pointers</t>
+  </si>
+  <si>
+    <t>Given an integer array nums, move all 0's to the end of it while maintaining the relative order of the non-zero elements.
+Note that you must do this in-place without making a copy of the array.</t>
+  </si>
+  <si>
+    <t>i = 0
+        for i in nums:
+            if i == 0:
+                nums.remove(i)
+                nums.append(i)
+                i += 1
+            i += 1
+        return nums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax:
+pop() : Remove by index and returns the value 
+remove() : remove by value
+del : remove by index and does not return the value
+Use pop() if need to access or use the removed value
+Use del if only need to remove the element and do not need the removed value 
+</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>Given two strings s and t, return true if s is a subsequence of t, or false otherwise.
+A subsequence of a string is a new string that is formed from the original string by deleting some (can be none) of the characters without disturbing the relative positions of the remaining characters. (i.e., "ace" is a subsequence of "abcde" while "aec" is not).</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def isSubsequence(self, s: str, t: str) -&gt; bool:
+        s1 = len(s)
+        t1 = len(t)
+        i = j = 0
+        while i &lt; s1 and j &lt; t1:
+            if s[i] == t[j]:
+                i += 1
+            j += 1
+        return True if i == s1 else False</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-average-subarray-i/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>You are given an integer array nums consisting of n elements, and an integer k.
+Find a contiguous subarray whose length is equal to k that has the maximum average value and return this value. Any answer with a calculation error less than 10-5 will be accepted.</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def findMaxAverage(self, nums: list[int], k: int) -&gt; float:
+        n = len(nums)
+        initial_sum = sum(nums[:k])
+        max_sum = initial_sum
+        for i in range(n - k):
+            next_sum = initial_sum - nums[i] + nums[k - i]
+            max_sum = max(max_sum, next_sum)
+        return max_sum / k</t>
+  </si>
+  <si>
+    <t>current sum = sum of k numbers
+to find the next sum of k numbers = current sum - first num + k+1 num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,14 +451,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,9 +476,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,6 +498,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,20 +861,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5244417-A88C-B64D-8BD7-938B8FE8E901}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="75" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="6" max="6" width="124.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -561,32 +894,215 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="339" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:6" ht="234" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="270" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="377" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="324" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="216" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{07ECC725-36EE-E048-A619-BF9028618CBF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F59E98AA-F1F4-CE41-8F09-82813F1458E9}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{D9FAE911-9873-7840-9F00-39CD70A8E307}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{6617B5C6-0D6E-354C-8095-CD42A8A64706}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{3F41C5F7-3CCC-4147-AD6E-90DCCB1FB881}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/75_questions/75 Questions.xlsx
+++ b/75_questions/75 Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/Workspace/leet-code-practice/75_questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CD179-40F8-2F49-A28B-F99FAEA25768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCBC4B-600F-674D-91DC-D46C5FE57C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{4DA75435-538F-5544-B769-C24FC4EFB658}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -422,6 +422,50 @@
     <t>current sum = sum of k numbers
 to find the next sum of k numbers = current sum - first num + k+1 num</t>
   </si>
+  <si>
+    <t>There is a biker going on a road trip. The road trip consists of n + 1 points at different altitudes. The biker starts his trip on point 0 with altitude equal 0.
+You are given an integer array gain of length n where gain[i] is the net gain in altitude between points i​​​​​​ and i + 1 for all (0 &lt;= i &lt; n). Return the highest altitude of a point.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def largestAltitude(self, gain: list[int]) -&gt; int:
+        altitude = []
+        current_sum = 0
+        altitude.append(current_sum)
+        for i in gain:
+            current_sum += i
+            altitude.append(current_sum)
+            i += 1
+        return max(altitude)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-highest-altitude/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>Given an array of integers nums, calculate the pivot index of this array.
+The pivot index is the index where the sum of all the numbers strictly to the left of the index is equal to the sum of all the numbers strictly to the index's right.
+If the index is on the left edge of the array, then the left sum is 0 because there are no elements to the left. This also applies to the right edge of the array.
+Return the leftmost pivot index. If no such index exists, return -1.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def pivotIndex(self, nums: list[int]) -&gt; int:
+        total_sum = sum(nums)
+        left_sum = 0
+        for i in range(len(nums)):
+            # total_sum = left_sum + nums[i] + right_sum
+            right_sum = total_sum - left_sum - nums[i]
+            if right_sum == left_sum:
+                return i
+            left_sum += nums[i]
+        return -1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -525,6 +569,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -861,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5244417-A88C-B64D-8BD7-938B8FE8E901}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,9 +1131,39 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="198" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="221" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
